--- a/ocms/src/test/resources/TestData/OCMInteractionActionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMInteractionActionReportData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FF4C30-5CC8-40ED-9076-31B39D260342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921C830A-B31C-4BEF-BE3D-5EF2971A7DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -149,6 +149,12 @@
     <t>Abrahma Villers</t>
   </si>
   <si>
+    <t>22-04-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>23-04-2020 00:00:00</t>
+  </si>
+  <si>
     <t xml:space="preserve">SELECT  M.AgentId as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],
 A.[SupervisorName] as [Supervisor Name], [InteractionID] as [Interaction ID], [Action],
 FORMAT([dbo].[VARCHARTODATETIME] (M.ActionTime),'dd/MM/yyyy HH:mm:ss') as [Action Time],
@@ -179,12 +185,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reports Automation </t>
-  </si>
-  <si>
-    <t>20-04-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>01-04-2021 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -572,7 +572,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -676,10 +676,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -688,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
         <v>37</v>
@@ -705,10 +705,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -717,7 +717,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -731,10 +731,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -743,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -757,10 +757,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -783,10 +783,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -809,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -821,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -874,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -929,10 +929,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +981,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -993,7 +993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1058,10 +1058,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1076,7 +1076,7 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>34</v>
@@ -1093,10 +1093,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -1125,10 +1125,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -1154,10 +1154,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -1183,10 +1183,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1212,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1284,13 +1284,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/OCMInteractionActionReportData.xlsx
+++ b/ocms/src/test/resources/TestData/OCMInteractionActionReportData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921C830A-B31C-4BEF-BE3D-5EF2971A7DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFE781-742F-4891-88FA-F7D1A35A6F06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="46">
   <si>
     <t>Report Channel</t>
   </si>
@@ -89,18 +89,9 @@
     <t>Query</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Murali MS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ends with </t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>Agent ID</t>
   </si>
   <si>
@@ -116,15 +107,9 @@
     <t>Ends with</t>
   </si>
   <si>
-    <t>Team Name</t>
-  </si>
-  <si>
     <t>QA</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>Search String1</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>DeleteReason</t>
   </si>
   <si>
@@ -146,17 +128,44 @@
     <t>OCM Interaction Actions Report</t>
   </si>
   <si>
-    <t>Abrahma Villers</t>
-  </si>
-  <si>
-    <t>22-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>23-04-2020 00:00:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT  M.AgentId as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Team Name],
-A.[SupervisorName] as [Supervisor Name], [InteractionID] as [Interaction ID], [Action],
+    <t>11-10-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>13-10-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>Palak Garg</t>
+  </si>
+  <si>
+    <t>kan</t>
+  </si>
+  <si>
+    <t>Pal</t>
+  </si>
+  <si>
+    <t>Kanchan</t>
+  </si>
+  <si>
+    <t>60093</t>
+  </si>
+  <si>
+    <t>Kan</t>
+  </si>
+  <si>
+    <t>garg</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Org.Unit</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>SELECT  M.AgentId as [Agent ID],A.[AgentName] as [Agent Name],A.[TeamName] as [Org.Unit],
+A.[SupervisorName] as [Supervisor Name], [InteractionID] as [Interaction ID], [Action],M.Details as [Details],
 FORMAT([dbo].[VARCHARTODATETIME] (M.ActionTime),'dd/MM/yyyy HH:mm:ss') as [Action Time],
 [ActionResult] as [Action Result], 
 [LoginInstanceID] as [Login Instance ID] 
@@ -165,36 +174,23 @@
 Details,LoginInstanceID FROM TMAC_Interaction_Actions with(nolock)
 WHERE ActionTime &gt;= 'ReportBeforeDate' AND ActionTime &lt;= 'ReportAfterDate') M
 INNER JOIN  fn_AgentHierarchy('na','','') A  ON A.AgentId=M.AgentId
-order by M.ActionTime ASC;
-	</t>
-  </si>
-  <si>
-    <t>30-12-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>28-12-2020 00:00:00</t>
-  </si>
-  <si>
-    <t>Reports Automation</t>
-  </si>
-  <si>
-    <t>Abrahma</t>
-  </si>
-  <si>
-    <t>6666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reports Automation </t>
+order by M.ActionTime ASC;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -516,18 +512,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,24 +537,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -572,18 +568,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,18 +593,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -621,22 +617,22 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" customWidth="1"/>
-    <col min="8" max="8" width="21.26953125" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,24 +658,24 @@
         <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -688,27 +684,27 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -717,24 +713,24 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -743,24 +739,24 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -769,62 +765,63 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -835,18 +832,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,21 +860,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -890,18 +887,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -918,21 +915,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -945,18 +942,18 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,18 +967,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -993,26 +990,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,27 +1038,27 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -1073,30 +1070,30 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -1105,59 +1102,59 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -1166,27 +1163,27 @@
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1195,27 +1192,27 @@
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1224,10 +1221,10 @@
         <v>9</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1240,20 +1237,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1273,24 +1270,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
